--- a/experiment_results/backup_result/worst_case/Elevator/2wise/0.95_worst_case.xlsx
+++ b/experiment_results/backup_result/worst_case/Elevator/2wise/0.95_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="25">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -582,7 +584,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -614,7 +616,7 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -1107,7 +1109,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1139,7 +1141,7 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -1632,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1664,7 +1666,7 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -2157,7 +2159,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>110</v>
@@ -2180,16 +2182,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>269</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>269</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -2676,13 +2678,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>110</v>
@@ -2705,16 +2707,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -3207,7 +3209,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3239,7 +3241,7 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -3732,7 +3734,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3764,7 +3766,7 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -4088,6 +4090,1056 @@
       </c>
       <c r="G16">
         <v>3</v>
+      </c>
+      <c r="H16">
+        <v>449</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>69</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>402</v>
+      </c>
+      <c r="L2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>449</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+      <c r="G5">
+        <v>52</v>
+      </c>
+      <c r="H5">
+        <v>449</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>415</v>
+      </c>
+      <c r="L5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>43</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>404</v>
+      </c>
+      <c r="L6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>449</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>39</v>
+      </c>
+      <c r="H8">
+        <v>449</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>36</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>402</v>
+      </c>
+      <c r="L9">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>449</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>449</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+      <c r="K11">
+        <v>402</v>
+      </c>
+      <c r="L11">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>449</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>449</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>402</v>
+      </c>
+      <c r="L14">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>449</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>402</v>
+      </c>
+      <c r="L15">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>449</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>167</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>402</v>
+      </c>
+      <c r="L2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>443</v>
+      </c>
+      <c r="H4">
+        <v>449</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+      <c r="G5">
+        <v>288</v>
+      </c>
+      <c r="H5">
+        <v>449</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>415</v>
+      </c>
+      <c r="L5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>436</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>404</v>
+      </c>
+      <c r="L6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>449</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>216</v>
+      </c>
+      <c r="H8">
+        <v>449</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>271</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>402</v>
+      </c>
+      <c r="L9">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>444</v>
+      </c>
+      <c r="H10">
+        <v>449</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>436</v>
+      </c>
+      <c r="H11">
+        <v>449</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+      <c r="K11">
+        <v>402</v>
+      </c>
+      <c r="L11">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>360</v>
+      </c>
+      <c r="H13">
+        <v>449</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>220</v>
+      </c>
+      <c r="H14">
+        <v>449</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>402</v>
+      </c>
+      <c r="L14">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>78</v>
+      </c>
+      <c r="H15">
+        <v>449</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>402</v>
+      </c>
+      <c r="L15">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>212</v>
       </c>
       <c r="H16">
         <v>449</v>
@@ -4257,7 +5309,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -4289,7 +5341,7 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -4782,7 +5834,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -4814,7 +5866,7 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -5307,7 +6359,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -5339,7 +6391,7 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -5823,16 +6875,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -5855,16 +6907,16 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
         <v>29</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>269</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -6357,7 +7409,7 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>52</v>
@@ -6389,7 +7441,7 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>43</v>
@@ -6873,16 +7925,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>288</v>
@@ -6905,16 +7957,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -7398,16 +8450,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>288</v>
@@ -7430,16 +8482,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -7932,7 +8984,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -7955,16 +9007,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>30</v>
